--- a/portfolioMfs2.xlsx
+++ b/portfolioMfs2.xlsx
@@ -366,7 +366,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
